--- a/biology/Botanique/Ruellia_makoyana/Ruellia_makoyana.xlsx
+++ b/biology/Botanique/Ruellia_makoyana/Ruellia_makoyana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ruellia makoyana est une espèce de plantes de la famille des Acanthaceae originaire du Brésil. C'est une plante vivace pouvant atteindre 60 cm de haut et 45 cm de large, avec des feuilles persistantes velues à nervures blanches et des fleurs roses en forme de trompe en été[1].
-Mourant en-dessous de 12°C, elle est une plante d'intérieur dans les régions tempérées. En Grande-Bretagne elle a reçu l'Award of Garden Merit de la Royal Horticultural Society[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruellia makoyana est une espèce de plantes de la famille des Acanthaceae originaire du Brésil. C'est une plante vivace pouvant atteindre 60 cm de haut et 45 cm de large, avec des feuilles persistantes velues à nervures blanches et des fleurs roses en forme de trompe en été.
+Mourant en-dessous de 12°C, elle est une plante d'intérieur dans les régions tempérées. En Grande-Bretagne elle a reçu l'Award of Garden Merit de la Royal Horticultural Society.
 </t>
         </is>
       </c>
